--- a/Detection/Results.xlsx
+++ b/Detection/Results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bidossea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F491B6-6C63-4545-B126-EAFC108984B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633A432-282F-48D3-BE3A-8765B0EABD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$565</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -2068,10 +2071,13 @@
   <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:C565"/>
+      <selection activeCell="L562" sqref="L562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2150,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2166,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2238,7 +2244,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2294,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2310,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2350,7 +2356,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2390,7 +2396,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,7 +2428,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -2430,7 +2436,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2494,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2502,7 +2508,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2558,7 +2564,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2590,7 +2596,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2742,7 +2748,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2782,7 +2788,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2806,7 +2812,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2838,7 +2844,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2870,7 +2876,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2902,7 +2908,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2942,7 +2948,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -3086,7 +3092,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -3094,7 +3100,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -3166,7 +3172,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -3206,7 +3212,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -3214,7 +3220,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -3230,7 +3236,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -3270,7 +3276,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -3278,7 +3284,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -3334,7 +3340,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -3438,7 +3444,7 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -3462,7 +3468,7 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -3486,7 +3492,7 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -3510,7 +3516,7 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -3542,7 +3548,7 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -3574,7 +3580,7 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -3606,7 +3612,7 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -3742,7 +3748,7 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -3798,7 +3804,7 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -3846,7 +3852,7 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -3854,7 +3860,7 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -3886,7 +3892,7 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -3934,7 +3940,7 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -3998,7 +4004,7 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -4006,7 +4012,7 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -4030,7 +4036,7 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -4078,7 +4084,7 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -4102,7 +4108,7 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -4150,7 +4156,7 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -4182,7 +4188,7 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -4198,7 +4204,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -4254,7 +4260,7 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -4302,7 +4308,7 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -4310,7 +4316,7 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -4342,7 +4348,7 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -4366,7 +4372,7 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -4398,7 +4404,7 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -4470,7 +4476,7 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -4478,7 +4484,7 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -4558,7 +4564,7 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
@@ -4590,7 +4596,7 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -4606,7 +4612,7 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -4638,7 +4644,7 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
@@ -4662,7 +4668,7 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
@@ -4694,7 +4700,7 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
@@ -4702,7 +4708,7 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
@@ -4710,7 +4716,7 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
@@ -4726,7 +4732,7 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -4774,7 +4780,7 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -4846,7 +4852,7 @@
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -4918,7 +4924,7 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -4950,7 +4956,7 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
@@ -5014,7 +5020,7 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
@@ -5038,7 +5044,7 @@
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
@@ -5046,7 +5052,7 @@
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
@@ -5054,7 +5060,7 @@
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
@@ -5094,7 +5100,7 @@
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
@@ -5118,7 +5124,7 @@
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
@@ -5158,7 +5164,7 @@
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
@@ -5182,7 +5188,7 @@
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
@@ -5318,7 +5324,7 @@
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
@@ -5438,7 +5444,7 @@
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
@@ -5446,7 +5452,7 @@
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
@@ -5494,7 +5500,7 @@
         <v>430</v>
       </c>
       <c r="B428" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
@@ -5558,7 +5564,7 @@
         <v>438</v>
       </c>
       <c r="B436" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
@@ -5566,7 +5572,7 @@
         <v>439</v>
       </c>
       <c r="B437" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
@@ -5582,7 +5588,7 @@
         <v>441</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
@@ -5710,7 +5716,7 @@
         <v>457</v>
       </c>
       <c r="B455" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
@@ -5758,7 +5764,7 @@
         <v>463</v>
       </c>
       <c r="B461" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
@@ -5870,7 +5876,7 @@
         <v>477</v>
       </c>
       <c r="B475" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
@@ -5886,7 +5892,7 @@
         <v>479</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
@@ -5926,7 +5932,7 @@
         <v>484</v>
       </c>
       <c r="B482" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
@@ -5942,7 +5948,7 @@
         <v>486</v>
       </c>
       <c r="B484" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
@@ -5950,7 +5956,7 @@
         <v>487</v>
       </c>
       <c r="B485" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
@@ -5958,7 +5964,7 @@
         <v>488</v>
       </c>
       <c r="B486" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
@@ -5974,7 +5980,7 @@
         <v>490</v>
       </c>
       <c r="B488" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
@@ -5982,7 +5988,7 @@
         <v>491</v>
       </c>
       <c r="B489" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
@@ -6094,7 +6100,7 @@
         <v>505</v>
       </c>
       <c r="B503" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
@@ -6118,7 +6124,7 @@
         <v>508</v>
       </c>
       <c r="B506" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
@@ -6214,7 +6220,7 @@
         <v>520</v>
       </c>
       <c r="B518" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
@@ -6254,7 +6260,7 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
@@ -6262,7 +6268,7 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
@@ -6270,7 +6276,7 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
@@ -6294,7 +6300,7 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
@@ -6318,7 +6324,7 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
@@ -6414,7 +6420,7 @@
         <v>545</v>
       </c>
       <c r="B543" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.35">
@@ -6478,7 +6484,7 @@
         <v>553</v>
       </c>
       <c r="B551" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.35">
@@ -6590,10 +6596,11 @@
         <v>567</v>
       </c>
       <c r="B565" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B565" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>